--- a/spliced/struggle/2023-04-06_18-25-57/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-25-57/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1392936706542968</v>
+        <v>0.2003364562988281</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3245168924331665</v>
+        <v>0.6192827224731445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0351060479879379</v>
+        <v>-0.0097306966781616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.261228561401367</v>
+        <v>0.1392936706542968</v>
       </c>
       <c r="B3" t="n">
-        <v>1.41911768913269</v>
+        <v>0.3245168924331665</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.086977005004883</v>
+        <v>0.0351060479879379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.267774105072021</v>
+        <v>1.261228561401367</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.184367299079895</v>
+        <v>1.41911768913269</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.818997621536255</v>
+        <v>-4.086977005004883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.021368980407715</v>
+        <v>2.267774105072021</v>
       </c>
       <c r="B5" t="n">
-        <v>2.765882253646851</v>
+        <v>-1.184367299079895</v>
       </c>
       <c r="C5" t="n">
-        <v>1.220625877380371</v>
+        <v>-3.818997621536255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.566243886947632</v>
+        <v>-1.021368980407715</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6303287744522095</v>
+        <v>2.765882253646851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5539150238037109</v>
+        <v>1.220625877380371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.018197059631348</v>
+        <v>-1.566243886947632</v>
       </c>
       <c r="B7" t="n">
-        <v>1.482012748718261</v>
+        <v>0.6303287744522095</v>
       </c>
       <c r="C7" t="n">
-        <v>1.627924919128418</v>
+        <v>0.5539150238037109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.581077575683594</v>
+        <v>-2.018197059631348</v>
       </c>
       <c r="B8" t="n">
-        <v>2.173830270767212</v>
+        <v>1.482012748718261</v>
       </c>
       <c r="C8" t="n">
-        <v>9.107954978942873</v>
+        <v>1.627924919128418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2751750946044922</v>
+        <v>-4.581077575683594</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9806771278381348</v>
+        <v>2.173830270767212</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.06553053855896</v>
+        <v>9.107954978942873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.35319709777832</v>
+        <v>-0.2751750946044922</v>
       </c>
       <c r="B10" t="n">
-        <v>1.910999298095703</v>
+        <v>-0.9806771278381348</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.476747035980225</v>
+        <v>-2.06553053855896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.167366027832031</v>
+        <v>2.35319709777832</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09876181930303569</v>
+        <v>1.910999298095703</v>
       </c>
       <c r="C11" t="n">
-        <v>3.953242778778076</v>
+        <v>-2.476747035980225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.787458419799805</v>
+        <v>-4.167366027832031</v>
       </c>
       <c r="B12" t="n">
-        <v>1.655651211738586</v>
+        <v>0.09876181930303569</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.035046577453613</v>
+        <v>3.953242778778076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-9.838252067565918</v>
+        <v>-1.787458419799805</v>
       </c>
       <c r="B13" t="n">
-        <v>3.984453201293945</v>
+        <v>1.655651211738586</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.098217010498047</v>
+        <v>-5.035046577453613</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.411758422851562</v>
+        <v>-9.838252067565918</v>
       </c>
       <c r="B14" t="n">
-        <v>1.583425164222717</v>
+        <v>3.984453201293945</v>
       </c>
       <c r="C14" t="n">
-        <v>7.352428436279297</v>
+        <v>-6.098217010498047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.261712551116944</v>
+        <v>6.411758422851562</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8220813274383545</v>
+        <v>1.583425164222717</v>
       </c>
       <c r="C15" t="n">
-        <v>1.315514087677002</v>
+        <v>7.352428436279297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.646389007568359</v>
+        <v>-2.261712551116944</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2190679311752319</v>
+        <v>0.8220813274383545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9841623306274414</v>
+        <v>1.315514087677002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.105591297149658</v>
+        <v>-1.646389007568359</v>
       </c>
       <c r="B17" t="n">
-        <v>1.020219326019287</v>
+        <v>0.2190679311752319</v>
       </c>
       <c r="C17" t="n">
-        <v>3.201179504394531</v>
+        <v>0.9841623306274414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.33466100692749</v>
+        <v>-1.105591297149658</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.8289146423339844</v>
+        <v>1.020219326019287</v>
       </c>
       <c r="C18" t="n">
-        <v>6.12528133392334</v>
+        <v>3.201179504394531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.558335304260254</v>
+        <v>-4.33466100692749</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.159212052822113</v>
+        <v>-0.8289146423339844</v>
       </c>
       <c r="C19" t="n">
-        <v>1.605715155601502</v>
+        <v>6.12528133392334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.9647946357727052</v>
+        <v>-1.558335304260254</v>
       </c>
       <c r="B20" t="n">
-        <v>1.00678539276123</v>
+        <v>-0.159212052822113</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.680802822113037</v>
+        <v>1.605715155601502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.9647946357727052</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.00678539276123</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.680802822113037</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-3.810809135437012</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>1.403007388114929</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>0.0495486259460449</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.585423946380615</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.060841083526612</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.507726192474365</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-5.486822128295898</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.457437515258789</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.076503276824951</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.813155174255371</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-5.157403945922852</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.194998264312744</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.507768154144287</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.501498937606812</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7795240879058838</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.2215757369995117</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.4009582996368408</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.163901329040528</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1625576019287109</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.34720504283905</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.6319388151168823</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.044438362121582</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1398162841796875</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.8414495587348938</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1983919143676757</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.413076639175415</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2017757892608642</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.6235456466674805</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.087465167045593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6343502402305603</v>
       </c>
     </row>
   </sheetData>
